--- a/TestData/LV_T2278_EventExpenseEmailNotificationRequestMoreInformationApproveAsFirstLevelApproverSet1.xlsx
+++ b/TestData/LV_T2278_EventExpenseEmailNotificationRequestMoreInformationApproveAsFirstLevelApproverSet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39E6D57-0594-4A9D-BE56-DB6EBB52B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9CF37B-7577-4327-8A4C-082BEB4D8CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -166,10 +166,10 @@
     <t>Expense Request(LWC)</t>
   </si>
   <si>
-    <t>Bingo@1234567</t>
-  </si>
-  <si>
     <t>FVATestOpportunity Admin</t>
+  </si>
+  <si>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>25</v>
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>25</v>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -851,8 +851,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F4445493-8186-46D0-9FCC-B2EAC44C9B13}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{2E8AF063-190E-4412-A845-5FB90138813D}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{7562AD2C-521B-4A10-929D-22313D2D39C0}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{A0DF3F6B-EDAF-4681-88C1-C7CA16C8F396}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{A0DF3F6B-EDAF-4681-88C1-C7CA16C8F396}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{5A54BB17-E6F1-4A7E-A379-93BDDADE983D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
